--- a/Experiment/Analysis/Behavioral analysis/minmaxTable.xlsx
+++ b/Experiment/Analysis/Behavioral analysis/minmaxTable.xlsx
@@ -13,7 +13,1561 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="537">
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>maxAgent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>minAgent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
   <si>
     <t>Pair</t>
   </si>
@@ -125,13 +1679,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>519</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -139,10 +1693,10 @@
         <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3">
@@ -150,10 +1704,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4">
@@ -161,10 +1715,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -172,10 +1726,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6">
@@ -183,10 +1737,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>521</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
@@ -194,10 +1748,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -205,10 +1759,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9">
@@ -216,10 +1770,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10">
@@ -227,10 +1781,10 @@
         <v>117</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
@@ -238,10 +1792,10 @@
         <v>118</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>523</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12">
@@ -249,10 +1803,10 @@
         <v>120</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>524</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13">
@@ -260,10 +1814,10 @@
         <v>121</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>525</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
@@ -271,10 +1825,10 @@
         <v>122</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>525</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
@@ -282,10 +1836,10 @@
         <v>123</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>526</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
@@ -293,10 +1847,10 @@
         <v>124</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>527</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
